--- a/Learning_assisted_review/figure/BarCharts.xlsx
+++ b/Learning_assisted_review/figure/BarCharts.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ML-assisted-SLR\Learning_assisted_review\figure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18200" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Most Difficult" sheetId="1" r:id="rId1"/>
-    <sheet name="Most Time Consuming" sheetId="4" r:id="rId2"/>
-    <sheet name="Tool Support" sheetId="5" r:id="rId3"/>
-    <sheet name="Exclusion_Title" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Chart2" sheetId="7" r:id="rId1"/>
+    <sheet name="Most Difficult" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="6" r:id="rId3"/>
+    <sheet name="Most Time Consuming" sheetId="4" r:id="rId4"/>
+    <sheet name="Tool Support" sheetId="5" r:id="rId5"/>
+    <sheet name="Exclusion_Title" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -56,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,16 +101,26 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5ADC5A"/>
+      <color rgb="FF92DA9C"/>
+      <color rgb="FF3B26DA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -129,6 +146,11 @@
           <c:tx>
             <c:v>Most Difficult</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5ADC5A"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -189,6 +211,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68FA-48E5-8C4B-F6A9EEFF1CB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -196,6 +223,14 @@
           <c:tx>
             <c:v>Second Most Difficult</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -256,6 +291,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68FA-48E5-8C4B-F6A9EEFF1CB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -263,6 +303,11 @@
           <c:tx>
             <c:v>Third Most Difficult</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -323,6 +368,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68FA-48E5-8C4B-F6A9EEFF1CB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -344,9 +394,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="81270976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -367,6 +432,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="145290240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -376,16 +451,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -411,6 +481,11 @@
           <c:tx>
             <c:v>Most Time Consuming</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5ADC5A"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -471,6 +546,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AEC-4965-8EFC-F52178484991}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -478,6 +558,14 @@
           <c:tx>
             <c:v>Second Most Time Consuming</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -538,6 +626,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AEC-4965-8EFC-F52178484991}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -545,6 +638,11 @@
           <c:tx>
             <c:v>Third Most Time Consuming</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -605,6 +703,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AEC-4965-8EFC-F52178484991}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -626,9 +729,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="165364288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -649,6 +763,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="144048128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -658,16 +782,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -753,6 +872,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B665-4FA9-A3E5-F6BEDB1B63B3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -820,6 +944,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B665-4FA9-A3E5-F6BEDB1B63B3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -887,6 +1016,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B665-4FA9-A3E5-F6BEDB1B63B3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -908,6 +1042,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -938,7 +1073,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -954,7 +1088,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1022,6 +1156,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-887A-40DC-8D1F-4F8909DC4E10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1071,6 +1210,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-887A-40DC-8D1F-4F8909DC4E10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1120,6 +1264,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-887A-40DC-8D1F-4F8909DC4E10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1140,6 +1289,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1169,7 +1319,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1184,61 +1333,44 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{240D4E25-6B05-4A38-B4C1-C8120C60E4D6}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D3AE22AF-237B-4721-AC2E-65592B9982B1}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668712" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>209552</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C63AA54-38F6-435F-86A7-B409CE7D00CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1252,7 +1384,40 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668712" cy="6292273"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C64B7B1-B7B3-4722-91C7-5D537C6E62A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1273,7 +1438,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1310,7 +1481,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1371,7 +1548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1404,9 +1581,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1439,6 +1633,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1614,14 +1825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA71"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="AG53" sqref="AG53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="3" bestFit="1" customWidth="1"/>
@@ -1633,7 +1844,7 @@
     <col min="25" max="27" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1698,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1793,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1888,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1983,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2078,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2173,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2268,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2363,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2458,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2553,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2648,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2743,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2838,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2933,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6</v>
       </c>
@@ -3028,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3123,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3218,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -3313,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>7</v>
       </c>
@@ -3408,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3503,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3598,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3693,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3788,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3883,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3978,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -4073,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4168,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4263,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -4358,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4453,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6</v>
       </c>
@@ -4548,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7</v>
       </c>
@@ -4643,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4738,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7</v>
       </c>
@@ -4833,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4928,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7</v>
       </c>
@@ -5023,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5118,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3</v>
       </c>
@@ -5213,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -5308,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5403,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5498,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -5593,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
@@ -5688,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6</v>
       </c>
@@ -5783,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -5878,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7</v>
       </c>
@@ -5973,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2</v>
       </c>
@@ -6068,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6163,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5</v>
       </c>
@@ -6258,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>7</v>
       </c>
@@ -6353,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5</v>
       </c>
@@ -6448,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3</v>
       </c>
@@ -6543,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6</v>
       </c>
@@ -6638,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4</v>
       </c>
@@ -6733,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5</v>
       </c>
@@ -6828,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -6923,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
@@ -7018,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5</v>
       </c>
@@ -7113,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>7</v>
       </c>
@@ -7208,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>3</v>
       </c>
@@ -7303,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E63">
         <f>SUM(E3:E61)</f>
         <v>2</v>
@@ -7389,37 +7600,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -7427,19 +7638,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AA71"/>
   <sheetViews>
-    <sheetView topLeftCell="X30" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C61"/>
-    </sheetView>
+    <sheetView topLeftCell="J43" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="3" bestFit="1" customWidth="1"/>
@@ -7451,7 +7659,7 @@
     <col min="25" max="27" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>1</v>
       </c>
@@ -7516,7 +7724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7611,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -7706,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7801,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7</v>
       </c>
@@ -7896,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7991,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8086,7 +8294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8181,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8276,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8371,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8466,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8561,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8656,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -8751,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8846,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8941,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -9036,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -9131,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9226,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -9321,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -9416,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -9511,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5</v>
       </c>
@@ -9606,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -9701,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -9796,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -9891,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5</v>
       </c>
@@ -9986,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
@@ -10081,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -10176,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -10271,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6</v>
       </c>
@@ -10366,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5</v>
       </c>
@@ -10461,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -10556,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -10651,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -10746,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -10841,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -10936,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
@@ -11031,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5</v>
       </c>
@@ -11126,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5</v>
       </c>
@@ -11221,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -11316,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -11411,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -11506,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
@@ -11601,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -11696,7 +11904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -11791,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6</v>
       </c>
@@ -11886,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -11981,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5</v>
       </c>
@@ -12076,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6</v>
       </c>
@@ -12171,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5</v>
       </c>
@@ -12266,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>5</v>
       </c>
@@ -12361,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6</v>
       </c>
@@ -12456,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5</v>
       </c>
@@ -12551,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5</v>
       </c>
@@ -12646,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -12741,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
@@ -12836,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5</v>
       </c>
@@ -12931,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
@@ -13026,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>4</v>
       </c>
@@ -13121,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E63">
         <f>SUM(E3:E61)</f>
         <v>1</v>
@@ -13207,37 +13415,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -13245,19 +13453,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AA71"/>
   <sheetViews>
     <sheetView topLeftCell="R9" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="3" bestFit="1" customWidth="1"/>
@@ -13269,7 +13476,7 @@
     <col min="25" max="27" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>1</v>
       </c>
@@ -13334,7 +13541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
@@ -13429,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13524,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13619,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13714,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13809,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -13904,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13999,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
@@ -14094,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -14189,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -14284,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14379,7 +14586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -14474,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -14569,7 +14776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -14664,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -14759,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -14854,7 +15061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>6</v>
       </c>
@@ -14949,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -15044,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -15139,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4</v>
       </c>
@@ -15234,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -15329,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -15424,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -15519,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -15614,7 +15821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -15709,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15804,7 +16011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -15899,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
@@ -15994,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -16089,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6</v>
       </c>
@@ -16184,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5</v>
       </c>
@@ -16279,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
@@ -16374,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -16469,7 +16676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -16564,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7</v>
       </c>
@@ -16659,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -16754,7 +16961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
@@ -16849,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6</v>
       </c>
@@ -16944,7 +17151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -17039,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -17134,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4</v>
       </c>
@@ -17229,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
@@ -17324,7 +17531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3</v>
       </c>
@@ -17419,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6</v>
       </c>
@@ -17514,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5</v>
       </c>
@@ -17609,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -17704,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -17799,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4</v>
       </c>
@@ -17894,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6</v>
       </c>
@@ -17989,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4</v>
       </c>
@@ -18084,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -18179,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4</v>
       </c>
@@ -18274,7 +18481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4</v>
       </c>
@@ -18369,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4</v>
       </c>
@@ -18464,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -18559,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>4</v>
       </c>
@@ -18654,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>4</v>
       </c>
@@ -18749,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
@@ -18844,7 +19051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5</v>
       </c>
@@ -18939,7 +19146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E63">
         <f>SUM(E3:E61)</f>
         <v>0</v>
@@ -19025,37 +19232,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -19068,16 +19275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="F2">
         <v>1</v>
       </c>
@@ -19115,7 +19322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>3</v>
       </c>
@@ -19174,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -19233,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -19292,7 +19499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
@@ -19351,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2</v>
       </c>
@@ -19410,7 +19617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>3</v>
       </c>
@@ -19469,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2</v>
       </c>
@@ -19528,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2</v>
       </c>
@@ -19587,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2</v>
       </c>
@@ -19646,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>3</v>
       </c>
@@ -19705,7 +19912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>3</v>
       </c>
@@ -19764,7 +19971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2</v>
       </c>
@@ -19823,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2</v>
       </c>
@@ -19882,7 +20089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2</v>
       </c>
@@ -19941,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>3</v>
       </c>
@@ -20000,7 +20207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>1</v>
       </c>
@@ -20059,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
@@ -20118,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2</v>
       </c>
@@ -20177,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>4</v>
       </c>
@@ -20236,7 +20443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1</v>
       </c>
@@ -20295,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2</v>
       </c>
@@ -20354,7 +20561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>2</v>
       </c>
@@ -20413,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>4</v>
       </c>
@@ -20472,7 +20679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>1</v>
       </c>
@@ -20531,7 +20738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>2</v>
       </c>
@@ -20590,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2</v>
       </c>
@@ -20649,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>2</v>
       </c>
@@ -20708,7 +20915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2</v>
       </c>
@@ -20767,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>2</v>
       </c>
@@ -20826,7 +21033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>1</v>
       </c>
@@ -20885,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2</v>
       </c>
@@ -20944,7 +21151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>4</v>
       </c>
@@ -21003,7 +21210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>2</v>
       </c>
@@ -21062,7 +21269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>3</v>
       </c>
@@ -21121,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>2</v>
       </c>
@@ -21180,7 +21387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>3</v>
       </c>
@@ -21239,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>3</v>
       </c>
@@ -21298,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>3</v>
       </c>
@@ -21357,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>3</v>
       </c>
@@ -21416,7 +21623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>1</v>
       </c>
@@ -21475,7 +21682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>2</v>
       </c>
@@ -21534,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>2</v>
       </c>
@@ -21593,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>3</v>
       </c>
@@ -21652,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>3</v>
       </c>
@@ -21711,7 +21918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>1</v>
       </c>
@@ -21770,7 +21977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>4</v>
       </c>
@@ -21829,7 +22036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>2</v>
       </c>
@@ -21888,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>3</v>
       </c>
@@ -21947,7 +22154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>4</v>
       </c>
@@ -22006,7 +22213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>1</v>
       </c>
@@ -22065,7 +22272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>2</v>
       </c>
@@ -22124,7 +22331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>2</v>
       </c>
@@ -22183,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>2</v>
       </c>
@@ -22242,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>4</v>
       </c>
@@ -22301,7 +22508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>1</v>
       </c>
@@ -22360,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>1</v>
       </c>
@@ -22419,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>1</v>
       </c>
@@ -22478,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>2</v>
       </c>
@@ -22537,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>4</v>
       </c>
@@ -22596,7 +22803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
       <c r="F63">
         <f>SUM(F3:F61)</f>
         <v>11</v>
@@ -22646,22 +22853,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -22673,12 +22880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
